--- a/mbs-perturbation/chatty/welm/chatty_welm_tanh_results.xlsx
+++ b/mbs-perturbation/chatty/welm/chatty_welm_tanh_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9871794871794872</v>
+        <v>0.9906103286384976</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5194805194805195</v>
+        <v>0.6706161137440759</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9829059829059829</v>
+        <v>0.971830985915493</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.841594827586207</v>
+        <v>0.5394736842105263</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9785407725321889</v>
+        <v>0.9764150943396226</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7658296943231441</v>
+        <v>0.721256038647343</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9785407725321889</v>
+        <v>0.9575471698113207</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6491228070175439</v>
+        <v>0.6376573617952929</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9914163090128756</v>
+        <v>0.9764150943396226</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8225108225108224</v>
+        <v>0.4942028985507246</v>
       </c>
     </row>
     <row r="7">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9837166648325448</v>
+        <v>0.9745637346089113</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7197077341836474</v>
+        <v>0.6126412193895925</v>
       </c>
     </row>
   </sheetData>
